--- a/chapter3/Chapter3-1a.xlsx
+++ b/chapter3/Chapter3-1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hong\booksWriting\dataMiningInExcel\Apress\eProofRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4391D26-6884-4819-AB32-6C458D258F7D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15A15B-EFBA-4D9B-A43C-72B37EF052A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1158,7 @@
         <v>57</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>53</v>

--- a/chapter3/Chapter3-1a.xlsx
+++ b/chapter3/Chapter3-1a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hong\booksWriting\dataMiningInExcel\Apress\eProofRead\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA15A15B-EFBA-4D9B-A43C-72B37EF052A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A5979-69ED-480D-83FF-BB4193FFC7DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1231,7 @@
         <v>25</v>
       </c>
       <c r="K6">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
